--- a/resources/assets/excel/20170523-BDD2.xlsx
+++ b/resources/assets/excel/20170523-BDD2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="80">
   <si>
     <t>Durchgeführte Aufträge</t>
   </si>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>JA</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
   </si>
 </sst>
 </file>
@@ -613,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,6 +1237,326 @@
         <v>39</v>
       </c>
     </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>42885</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42891</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>2277935</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11">
+        <v>54250</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11">
+        <v>7052</v>
+      </c>
+      <c r="N11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11">
+        <v>23571</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="U11">
+        <v>1350</v>
+      </c>
+      <c r="V11">
+        <v>1100</v>
+      </c>
+      <c r="W11">
+        <v>250</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>42883</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42889</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <v>2277945</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12">
+        <v>54250</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12">
+        <v>7052</v>
+      </c>
+      <c r="N12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12">
+        <v>23571</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="U12">
+        <v>1350</v>
+      </c>
+      <c r="V12">
+        <v>1100</v>
+      </c>
+      <c r="W12">
+        <v>250</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>42871</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42873</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>2277955</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13">
+        <v>54250</v>
+      </c>
+      <c r="J13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13">
+        <v>7052</v>
+      </c>
+      <c r="N13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13">
+        <v>27</v>
+      </c>
+      <c r="P13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13">
+        <v>23571</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="U13">
+        <v>1350</v>
+      </c>
+      <c r="V13">
+        <v>1100</v>
+      </c>
+      <c r="W13">
+        <v>250</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>42884</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42887</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>2277965</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14">
+        <v>54250</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14">
+        <v>7052</v>
+      </c>
+      <c r="N14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14">
+        <v>27</v>
+      </c>
+      <c r="P14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14">
+        <v>23571</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="U14">
+        <v>1350</v>
+      </c>
+      <c r="V14">
+        <v>1100</v>
+      </c>
+      <c r="W14">
+        <v>250</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/resources/assets/excel/20170523-BDD2.xlsx
+++ b/resources/assets/excel/20170523-BDD2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="82">
   <si>
     <t>Durchgeführte Aufträge</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>test5</t>
+  </si>
+  <si>
+    <t>ALALLALA23</t>
+  </si>
+  <si>
+    <t>ALAL25555</t>
   </si>
 </sst>
 </file>
@@ -627,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,6 +1162,9 @@
       <c r="Z9" t="s">
         <v>39</v>
       </c>
+      <c r="AA9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1475,6 +1484,9 @@
       </c>
       <c r="Z13" t="s">
         <v>39</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
